--- a/Ayudantia Economia/Lista alumnos.xlsx
+++ b/Ayudantia Economia/Lista alumnos.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28615"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jayala\Google Drive\Curso economía Seba - Javier\Trabajo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Moises/Desktop/Proyectos-Personales/Ayudantia Economia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{02A19633-EF39-48B3-8E32-A7E797E34005}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28020" windowHeight="17535" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Plain list" sheetId="1" r:id="rId1"/>
@@ -20,6 +19,9 @@
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -1383,7 +1385,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1422,12 +1424,24 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1509,82 +1523,85 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="68">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="67" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1921,22 +1938,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:H92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="164" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>356</v>
       </c>
@@ -1962,7 +1982,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>41</v>
       </c>
@@ -1988,7 +2008,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>49</v>
       </c>
@@ -2014,7 +2034,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>53</v>
       </c>
@@ -2040,7 +2060,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>26</v>
       </c>
@@ -2066,7 +2086,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>48</v>
       </c>
@@ -2092,7 +2112,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>88</v>
       </c>
@@ -2118,7 +2138,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2144,7 +2164,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>9</v>
       </c>
@@ -2170,7 +2190,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>30</v>
       </c>
@@ -2196,7 +2216,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2222,7 +2242,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>28</v>
       </c>
@@ -2248,7 +2268,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>66</v>
       </c>
@@ -2274,7 +2294,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>27</v>
       </c>
@@ -2300,7 +2320,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>37</v>
       </c>
@@ -2326,7 +2346,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>42</v>
       </c>
@@ -2352,7 +2372,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>23</v>
       </c>
@@ -2378,7 +2398,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>54</v>
       </c>
@@ -2404,7 +2424,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>86</v>
       </c>
@@ -2430,7 +2450,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>6</v>
       </c>
@@ -2456,7 +2476,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>29</v>
       </c>
@@ -2482,7 +2502,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>35</v>
       </c>
@@ -2508,7 +2528,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>38</v>
       </c>
@@ -2534,7 +2554,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>46</v>
       </c>
@@ -2560,7 +2580,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>67</v>
       </c>
@@ -2586,7 +2606,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2</v>
       </c>
@@ -2612,7 +2632,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>14</v>
       </c>
@@ -2638,7 +2658,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>80</v>
       </c>
@@ -2664,7 +2684,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>33</v>
       </c>
@@ -2690,7 +2710,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>62</v>
       </c>
@@ -2716,7 +2736,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>84</v>
       </c>
@@ -2742,7 +2762,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>3</v>
       </c>
@@ -2768,7 +2788,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>60</v>
       </c>
@@ -2794,7 +2814,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>82</v>
       </c>
@@ -2820,7 +2840,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>24</v>
       </c>
@@ -2846,7 +2866,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>45</v>
       </c>
@@ -2872,7 +2892,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>50</v>
       </c>
@@ -2898,7 +2918,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>47</v>
       </c>
@@ -2924,7 +2944,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>56</v>
       </c>
@@ -2950,7 +2970,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>71</v>
       </c>
@@ -2976,7 +2996,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>36</v>
       </c>
@@ -3002,7 +3022,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>72</v>
       </c>
@@ -3028,7 +3048,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>79</v>
       </c>
@@ -3054,7 +3074,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>17</v>
       </c>
@@ -3073,14 +3093,14 @@
       <c r="F44" t="s">
         <v>357</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="6">
         <v>15</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>74</v>
       </c>
@@ -3099,14 +3119,14 @@
       <c r="F45" t="s">
         <v>357</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="6">
         <v>15</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>76</v>
       </c>
@@ -3125,14 +3145,14 @@
       <c r="F46" t="s">
         <v>357</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="6">
         <v>15</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>16</v>
       </c>
@@ -3151,14 +3171,14 @@
       <c r="F47" t="s">
         <v>357</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="8">
         <v>16</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>58</v>
       </c>
@@ -3177,14 +3197,14 @@
       <c r="F48" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="8">
         <v>16</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>69</v>
       </c>
@@ -3203,14 +3223,14 @@
       <c r="F49" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="8">
         <v>16</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>20</v>
       </c>
@@ -3229,14 +3249,14 @@
       <c r="F50" t="s">
         <v>357</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="6">
         <v>17</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>63</v>
       </c>
@@ -3255,14 +3275,14 @@
       <c r="F51" t="s">
         <v>357</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="6">
         <v>17</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>87</v>
       </c>
@@ -3281,14 +3301,14 @@
       <c r="F52" t="s">
         <v>357</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="6">
         <v>17</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>12</v>
       </c>
@@ -3307,14 +3327,14 @@
       <c r="F53" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="6">
         <v>18</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>19</v>
       </c>
@@ -3333,14 +3353,14 @@
       <c r="F54" t="s">
         <v>357</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="6">
         <v>18</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>90</v>
       </c>
@@ -3359,14 +3379,14 @@
       <c r="F55" t="s">
         <v>357</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="6">
         <v>18</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>22</v>
       </c>
@@ -3385,14 +3405,14 @@
       <c r="F56" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="6">
         <v>19</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>32</v>
       </c>
@@ -3411,14 +3431,14 @@
       <c r="F57" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="G57">
+      <c r="G57" s="6">
         <v>19</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>55</v>
       </c>
@@ -3437,14 +3457,14 @@
       <c r="F58" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="6">
         <v>19</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>5</v>
       </c>
@@ -3463,14 +3483,14 @@
       <c r="F59" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="6">
         <v>20</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>44</v>
       </c>
@@ -3489,14 +3509,14 @@
       <c r="F60" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="G60">
+      <c r="G60" s="6">
         <v>20</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>59</v>
       </c>
@@ -3515,14 +3535,14 @@
       <c r="F61" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="G61">
+      <c r="G61" s="6">
         <v>20</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>13</v>
       </c>
@@ -3541,14 +3561,14 @@
       <c r="F62" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="G62">
+      <c r="G62" s="6">
         <v>21</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>15</v>
       </c>
@@ -3567,14 +3587,14 @@
       <c r="F63" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="G63">
+      <c r="G63" s="6">
         <v>21</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>89</v>
       </c>
@@ -3593,14 +3613,14 @@
       <c r="F64" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="G64">
+      <c r="G64" s="6">
         <v>21</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>8</v>
       </c>
@@ -3619,14 +3639,14 @@
       <c r="F65" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="G65">
+      <c r="G65" s="6">
         <v>22</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>11</v>
       </c>
@@ -3645,14 +3665,14 @@
       <c r="F66" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="G66">
+      <c r="G66" s="6">
         <v>22</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>21</v>
       </c>
@@ -3671,14 +3691,14 @@
       <c r="F67" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="G67">
+      <c r="G67" s="6">
         <v>22</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>4</v>
       </c>
@@ -3697,14 +3717,14 @@
       <c r="F68" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="G68">
+      <c r="G68" s="6">
         <v>23</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>83</v>
       </c>
@@ -3723,14 +3743,14 @@
       <c r="F69" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="G69">
+      <c r="G69" s="6">
         <v>23</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>85</v>
       </c>
@@ -3749,14 +3769,14 @@
       <c r="F70" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="G70">
+      <c r="G70" s="6">
         <v>23</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>18</v>
       </c>
@@ -3775,14 +3795,14 @@
       <c r="F71" t="s">
         <v>357</v>
       </c>
-      <c r="G71">
+      <c r="G71" s="6">
         <v>24</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>31</v>
       </c>
@@ -3801,14 +3821,14 @@
       <c r="F72" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="G72">
+      <c r="G72" s="6">
         <v>24</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>81</v>
       </c>
@@ -3827,14 +3847,14 @@
       <c r="F73" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="G73">
+      <c r="G73" s="6">
         <v>24</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>7</v>
       </c>
@@ -3853,14 +3873,14 @@
       <c r="F74" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="G74" s="3">
+      <c r="G74" s="6">
         <v>25</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>25</v>
       </c>
@@ -3879,14 +3899,14 @@
       <c r="F75" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="G75" s="3">
+      <c r="G75" s="6">
         <v>25</v>
       </c>
       <c r="H75" s="2" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -3905,14 +3925,14 @@
       <c r="F76" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="G76" s="3">
+      <c r="G76" s="6">
         <v>25</v>
       </c>
       <c r="H76" s="2" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>52</v>
       </c>
@@ -3931,14 +3951,14 @@
       <c r="F77" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="G77" s="3">
+      <c r="G77" s="8">
         <v>26</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>61</v>
       </c>
@@ -3957,14 +3977,14 @@
       <c r="F78" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="G78" s="3">
+      <c r="G78" s="8">
         <v>26</v>
       </c>
       <c r="H78" s="2" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>77</v>
       </c>
@@ -3983,14 +4003,14 @@
       <c r="F79" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="G79" s="3">
+      <c r="G79" s="8">
         <v>26</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>43</v>
       </c>
@@ -4009,14 +4029,14 @@
       <c r="F80" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="G80" s="3">
+      <c r="G80" s="6">
         <v>27</v>
       </c>
       <c r="H80" s="5" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>64</v>
       </c>
@@ -4035,14 +4055,14 @@
       <c r="F81" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="G81" s="3">
+      <c r="G81" s="6">
         <v>27</v>
       </c>
       <c r="H81" s="5" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>91</v>
       </c>
@@ -4061,14 +4081,14 @@
       <c r="F82" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="G82" s="4">
+      <c r="G82" s="7">
         <v>27</v>
       </c>
       <c r="H82" s="5" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>51</v>
       </c>
@@ -4087,14 +4107,14 @@
       <c r="F83" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="G83" s="3">
+      <c r="G83" s="6">
         <v>28</v>
       </c>
       <c r="H83" s="2" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>73</v>
       </c>
@@ -4113,14 +4133,14 @@
       <c r="F84" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="G84" s="3">
+      <c r="G84" s="6">
         <v>28</v>
       </c>
       <c r="H84" s="2" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>78</v>
       </c>
@@ -4139,14 +4159,14 @@
       <c r="F85" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="G85" s="3">
+      <c r="G85" s="6">
         <v>28</v>
       </c>
       <c r="H85" s="2" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>34</v>
       </c>
@@ -4165,14 +4185,14 @@
       <c r="F86" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="G86" s="3">
+      <c r="G86" s="6">
         <v>29</v>
       </c>
       <c r="H86" s="2" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>39</v>
       </c>
@@ -4191,14 +4211,14 @@
       <c r="F87" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="G87" s="3">
+      <c r="G87" s="6">
         <v>29</v>
       </c>
       <c r="H87" s="2" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>40</v>
       </c>
@@ -4217,14 +4237,14 @@
       <c r="F88" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="G88" s="3">
+      <c r="G88" s="6">
         <v>29</v>
       </c>
       <c r="H88" s="2" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>57</v>
       </c>
@@ -4243,14 +4263,14 @@
       <c r="F89" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="G89" s="3">
+      <c r="G89" s="6">
         <v>29</v>
       </c>
       <c r="H89" s="2" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>65</v>
       </c>
@@ -4269,14 +4289,14 @@
       <c r="F90" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="G90">
+      <c r="G90" s="6">
         <v>30</v>
       </c>
       <c r="H90" s="2" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>68</v>
       </c>
@@ -4295,14 +4315,14 @@
       <c r="F91" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="G91">
+      <c r="G91" s="6">
         <v>30</v>
       </c>
       <c r="H91" s="2" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>70</v>
       </c>
@@ -4321,7 +4341,7 @@
       <c r="F92" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="G92">
+      <c r="G92" s="6">
         <v>30</v>
       </c>
       <c r="H92" s="2" t="s">
@@ -4329,17 +4349,17 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H92" xr:uid="{1C288D2C-A4D8-45BC-A55F-602F9B58A74B}">
+  <autoFilter ref="A1:H92">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="I+D"/>
+      </filters>
+    </filterColumn>
     <sortState ref="A2:H92">
       <sortCondition ref="G1:G92"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/Ayudantia Economia/Lista alumnos.xlsx
+++ b/Ayudantia Economia/Lista alumnos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" tabRatio="500"/>
+    <workbookView xWindow="1060" yWindow="460" windowWidth="26260" windowHeight="14900" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Plain list" sheetId="1" r:id="rId1"/>
@@ -1424,24 +1424,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1523,16 +1511,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="68">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
@@ -1943,7 +1928,7 @@
   <dimension ref="A1:H92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="164" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3093,7 +3078,7 @@
       <c r="F44" t="s">
         <v>357</v>
       </c>
-      <c r="G44" s="6">
+      <c r="G44" s="3">
         <v>15</v>
       </c>
       <c r="H44" s="2" t="s">
@@ -3119,7 +3104,7 @@
       <c r="F45" t="s">
         <v>357</v>
       </c>
-      <c r="G45" s="6">
+      <c r="G45" s="3">
         <v>15</v>
       </c>
       <c r="H45" s="2" t="s">
@@ -3145,7 +3130,7 @@
       <c r="F46" t="s">
         <v>357</v>
       </c>
-      <c r="G46" s="6">
+      <c r="G46" s="3">
         <v>15</v>
       </c>
       <c r="H46" s="2" t="s">
@@ -3171,7 +3156,7 @@
       <c r="F47" t="s">
         <v>357</v>
       </c>
-      <c r="G47" s="8">
+      <c r="G47" s="3">
         <v>16</v>
       </c>
       <c r="H47" s="2" t="s">
@@ -3197,7 +3182,7 @@
       <c r="F48" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="G48" s="8">
+      <c r="G48" s="3">
         <v>16</v>
       </c>
       <c r="H48" s="2" t="s">
@@ -3223,7 +3208,7 @@
       <c r="F49" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="G49" s="8">
+      <c r="G49" s="3">
         <v>16</v>
       </c>
       <c r="H49" s="2" t="s">
@@ -3249,7 +3234,7 @@
       <c r="F50" t="s">
         <v>357</v>
       </c>
-      <c r="G50" s="6">
+      <c r="G50" s="3">
         <v>17</v>
       </c>
       <c r="H50" s="2" t="s">
@@ -3275,7 +3260,7 @@
       <c r="F51" t="s">
         <v>357</v>
       </c>
-      <c r="G51" s="6">
+      <c r="G51" s="3">
         <v>17</v>
       </c>
       <c r="H51" s="2" t="s">
@@ -3301,7 +3286,7 @@
       <c r="F52" t="s">
         <v>357</v>
       </c>
-      <c r="G52" s="6">
+      <c r="G52" s="3">
         <v>17</v>
       </c>
       <c r="H52" s="2" t="s">
@@ -3327,7 +3312,7 @@
       <c r="F53" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="G53" s="6">
+      <c r="G53" s="3">
         <v>18</v>
       </c>
       <c r="H53" s="2" t="s">
@@ -3353,7 +3338,7 @@
       <c r="F54" t="s">
         <v>357</v>
       </c>
-      <c r="G54" s="6">
+      <c r="G54" s="3">
         <v>18</v>
       </c>
       <c r="H54" s="2" t="s">
@@ -3379,7 +3364,7 @@
       <c r="F55" t="s">
         <v>357</v>
       </c>
-      <c r="G55" s="6">
+      <c r="G55" s="3">
         <v>18</v>
       </c>
       <c r="H55" s="2" t="s">
@@ -3405,7 +3390,7 @@
       <c r="F56" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="G56" s="6">
+      <c r="G56" s="3">
         <v>19</v>
       </c>
       <c r="H56" s="2" t="s">
@@ -3431,7 +3416,7 @@
       <c r="F57" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="G57" s="6">
+      <c r="G57" s="3">
         <v>19</v>
       </c>
       <c r="H57" s="2" t="s">
@@ -3457,7 +3442,7 @@
       <c r="F58" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="G58" s="6">
+      <c r="G58" s="3">
         <v>19</v>
       </c>
       <c r="H58" s="2" t="s">
@@ -3483,7 +3468,7 @@
       <c r="F59" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="G59" s="6">
+      <c r="G59" s="3">
         <v>20</v>
       </c>
       <c r="H59" s="2" t="s">
@@ -3509,7 +3494,7 @@
       <c r="F60" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="G60" s="6">
+      <c r="G60" s="3">
         <v>20</v>
       </c>
       <c r="H60" s="2" t="s">
@@ -3535,7 +3520,7 @@
       <c r="F61" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="G61" s="6">
+      <c r="G61" s="3">
         <v>20</v>
       </c>
       <c r="H61" s="2" t="s">
@@ -3561,7 +3546,7 @@
       <c r="F62" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="G62" s="6">
+      <c r="G62" s="3">
         <v>21</v>
       </c>
       <c r="H62" s="2" t="s">
@@ -3587,7 +3572,7 @@
       <c r="F63" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="G63" s="6">
+      <c r="G63" s="3">
         <v>21</v>
       </c>
       <c r="H63" s="2" t="s">
@@ -3613,7 +3598,7 @@
       <c r="F64" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="G64" s="6">
+      <c r="G64" s="3">
         <v>21</v>
       </c>
       <c r="H64" s="2" t="s">
@@ -3639,7 +3624,7 @@
       <c r="F65" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="G65" s="6">
+      <c r="G65" s="3">
         <v>22</v>
       </c>
       <c r="H65" s="2" t="s">
@@ -3665,7 +3650,7 @@
       <c r="F66" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="G66" s="6">
+      <c r="G66" s="3">
         <v>22</v>
       </c>
       <c r="H66" s="2" t="s">
@@ -3691,7 +3676,7 @@
       <c r="F67" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="G67" s="6">
+      <c r="G67" s="3">
         <v>22</v>
       </c>
       <c r="H67" s="2" t="s">
@@ -3717,7 +3702,7 @@
       <c r="F68" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="G68" s="6">
+      <c r="G68" s="3">
         <v>23</v>
       </c>
       <c r="H68" s="2" t="s">
@@ -3743,7 +3728,7 @@
       <c r="F69" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="G69" s="6">
+      <c r="G69" s="3">
         <v>23</v>
       </c>
       <c r="H69" s="2" t="s">
@@ -3769,7 +3754,7 @@
       <c r="F70" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="G70" s="6">
+      <c r="G70" s="3">
         <v>23</v>
       </c>
       <c r="H70" s="2" t="s">
@@ -3795,7 +3780,7 @@
       <c r="F71" t="s">
         <v>357</v>
       </c>
-      <c r="G71" s="6">
+      <c r="G71" s="3">
         <v>24</v>
       </c>
       <c r="H71" s="2" t="s">
@@ -3821,7 +3806,7 @@
       <c r="F72" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="G72" s="6">
+      <c r="G72" s="3">
         <v>24</v>
       </c>
       <c r="H72" s="2" t="s">
@@ -3847,7 +3832,7 @@
       <c r="F73" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="G73" s="6">
+      <c r="G73" s="3">
         <v>24</v>
       </c>
       <c r="H73" s="2" t="s">
@@ -3873,7 +3858,7 @@
       <c r="F74" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="G74" s="6">
+      <c r="G74" s="3">
         <v>25</v>
       </c>
       <c r="H74" s="2" t="s">
@@ -3899,7 +3884,7 @@
       <c r="F75" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="G75" s="6">
+      <c r="G75" s="3">
         <v>25</v>
       </c>
       <c r="H75" s="2" t="s">
@@ -3925,7 +3910,7 @@
       <c r="F76" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="G76" s="6">
+      <c r="G76" s="3">
         <v>25</v>
       </c>
       <c r="H76" s="2" t="s">
@@ -3951,7 +3936,7 @@
       <c r="F77" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="G77" s="8">
+      <c r="G77" s="3">
         <v>26</v>
       </c>
       <c r="H77" s="2" t="s">
@@ -3977,7 +3962,7 @@
       <c r="F78" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="G78" s="8">
+      <c r="G78" s="3">
         <v>26</v>
       </c>
       <c r="H78" s="2" t="s">
@@ -4003,7 +3988,7 @@
       <c r="F79" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="G79" s="8">
+      <c r="G79" s="3">
         <v>26</v>
       </c>
       <c r="H79" s="2" t="s">
@@ -4029,7 +4014,7 @@
       <c r="F80" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="G80" s="6">
+      <c r="G80" s="3">
         <v>27</v>
       </c>
       <c r="H80" s="5" t="s">
@@ -4055,7 +4040,7 @@
       <c r="F81" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="G81" s="6">
+      <c r="G81" s="3">
         <v>27</v>
       </c>
       <c r="H81" s="5" t="s">
@@ -4081,7 +4066,7 @@
       <c r="F82" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="G82" s="7">
+      <c r="G82" s="4">
         <v>27</v>
       </c>
       <c r="H82" s="5" t="s">
@@ -4107,7 +4092,7 @@
       <c r="F83" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="G83" s="6">
+      <c r="G83" s="3">
         <v>28</v>
       </c>
       <c r="H83" s="2" t="s">
@@ -4133,7 +4118,7 @@
       <c r="F84" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="G84" s="6">
+      <c r="G84" s="3">
         <v>28</v>
       </c>
       <c r="H84" s="2" t="s">
@@ -4159,7 +4144,7 @@
       <c r="F85" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="G85" s="6">
+      <c r="G85" s="3">
         <v>28</v>
       </c>
       <c r="H85" s="2" t="s">
@@ -4185,7 +4170,7 @@
       <c r="F86" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="G86" s="6">
+      <c r="G86" s="3">
         <v>29</v>
       </c>
       <c r="H86" s="2" t="s">
@@ -4211,7 +4196,7 @@
       <c r="F87" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="G87" s="6">
+      <c r="G87" s="3">
         <v>29</v>
       </c>
       <c r="H87" s="2" t="s">
@@ -4237,7 +4222,7 @@
       <c r="F88" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="G88" s="6">
+      <c r="G88" s="3">
         <v>29</v>
       </c>
       <c r="H88" s="2" t="s">
@@ -4263,7 +4248,7 @@
       <c r="F89" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="G89" s="6">
+      <c r="G89" s="3">
         <v>29</v>
       </c>
       <c r="H89" s="2" t="s">
@@ -4289,7 +4274,7 @@
       <c r="F90" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="G90" s="6">
+      <c r="G90" s="3">
         <v>30</v>
       </c>
       <c r="H90" s="2" t="s">
@@ -4315,7 +4300,7 @@
       <c r="F91" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="G91" s="6">
+      <c r="G91" s="3">
         <v>30</v>
       </c>
       <c r="H91" s="2" t="s">
@@ -4341,7 +4326,7 @@
       <c r="F92" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="G92" s="6">
+      <c r="G92" s="3">
         <v>30</v>
       </c>
       <c r="H92" s="2" t="s">

--- a/Ayudantia Economia/Lista alumnos.xlsx
+++ b/Ayudantia Economia/Lista alumnos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="460" windowWidth="26260" windowHeight="14900" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Plain list" sheetId="1" r:id="rId1"/>
@@ -1424,12 +1424,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1511,13 +1517,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="68">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
@@ -1927,8 +1935,8 @@
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:H92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="164" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" topLeftCell="E79" zoomScale="182" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="G90" sqref="G90:G92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3078,7 +3086,7 @@
       <c r="F44" t="s">
         <v>357</v>
       </c>
-      <c r="G44" s="3">
+      <c r="G44" s="6">
         <v>15</v>
       </c>
       <c r="H44" s="2" t="s">
@@ -3104,7 +3112,7 @@
       <c r="F45" t="s">
         <v>357</v>
       </c>
-      <c r="G45" s="3">
+      <c r="G45" s="6">
         <v>15</v>
       </c>
       <c r="H45" s="2" t="s">
@@ -3130,7 +3138,7 @@
       <c r="F46" t="s">
         <v>357</v>
       </c>
-      <c r="G46" s="3">
+      <c r="G46" s="6">
         <v>15</v>
       </c>
       <c r="H46" s="2" t="s">
@@ -3156,7 +3164,7 @@
       <c r="F47" t="s">
         <v>357</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="6">
         <v>16</v>
       </c>
       <c r="H47" s="2" t="s">
@@ -3182,7 +3190,7 @@
       <c r="F48" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="G48" s="3">
+      <c r="G48" s="6">
         <v>16</v>
       </c>
       <c r="H48" s="2" t="s">
@@ -3208,7 +3216,7 @@
       <c r="F49" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G49" s="6">
         <v>16</v>
       </c>
       <c r="H49" s="2" t="s">
@@ -3234,7 +3242,7 @@
       <c r="F50" t="s">
         <v>357</v>
       </c>
-      <c r="G50" s="3">
+      <c r="G50" s="6">
         <v>17</v>
       </c>
       <c r="H50" s="2" t="s">
@@ -3260,7 +3268,7 @@
       <c r="F51" t="s">
         <v>357</v>
       </c>
-      <c r="G51" s="3">
+      <c r="G51" s="6">
         <v>17</v>
       </c>
       <c r="H51" s="2" t="s">
@@ -3286,7 +3294,7 @@
       <c r="F52" t="s">
         <v>357</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G52" s="6">
         <v>17</v>
       </c>
       <c r="H52" s="2" t="s">
@@ -3312,7 +3320,7 @@
       <c r="F53" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="G53" s="3">
+      <c r="G53" s="6">
         <v>18</v>
       </c>
       <c r="H53" s="2" t="s">
@@ -3338,7 +3346,7 @@
       <c r="F54" t="s">
         <v>357</v>
       </c>
-      <c r="G54" s="3">
+      <c r="G54" s="6">
         <v>18</v>
       </c>
       <c r="H54" s="2" t="s">
@@ -3364,7 +3372,7 @@
       <c r="F55" t="s">
         <v>357</v>
       </c>
-      <c r="G55" s="3">
+      <c r="G55" s="6">
         <v>18</v>
       </c>
       <c r="H55" s="2" t="s">
@@ -3390,7 +3398,7 @@
       <c r="F56" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="G56" s="3">
+      <c r="G56" s="6">
         <v>19</v>
       </c>
       <c r="H56" s="2" t="s">
@@ -3416,7 +3424,7 @@
       <c r="F57" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="G57" s="3">
+      <c r="G57" s="6">
         <v>19</v>
       </c>
       <c r="H57" s="2" t="s">
@@ -3442,7 +3450,7 @@
       <c r="F58" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58" s="6">
         <v>19</v>
       </c>
       <c r="H58" s="2" t="s">
@@ -3468,7 +3476,7 @@
       <c r="F59" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="G59" s="3">
+      <c r="G59" s="6">
         <v>20</v>
       </c>
       <c r="H59" s="2" t="s">
@@ -3494,7 +3502,7 @@
       <c r="F60" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="G60" s="3">
+      <c r="G60" s="6">
         <v>20</v>
       </c>
       <c r="H60" s="2" t="s">
@@ -3520,7 +3528,7 @@
       <c r="F61" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="G61" s="3">
+      <c r="G61" s="6">
         <v>20</v>
       </c>
       <c r="H61" s="2" t="s">
@@ -3546,7 +3554,7 @@
       <c r="F62" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="G62" s="3">
+      <c r="G62" s="6">
         <v>21</v>
       </c>
       <c r="H62" s="2" t="s">
@@ -3572,7 +3580,7 @@
       <c r="F63" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="G63" s="3">
+      <c r="G63" s="6">
         <v>21</v>
       </c>
       <c r="H63" s="2" t="s">
@@ -3598,7 +3606,7 @@
       <c r="F64" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="G64" s="3">
+      <c r="G64" s="6">
         <v>21</v>
       </c>
       <c r="H64" s="2" t="s">
@@ -3624,7 +3632,7 @@
       <c r="F65" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="G65" s="3">
+      <c r="G65" s="6">
         <v>22</v>
       </c>
       <c r="H65" s="2" t="s">
@@ -3650,7 +3658,7 @@
       <c r="F66" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="G66" s="3">
+      <c r="G66" s="6">
         <v>22</v>
       </c>
       <c r="H66" s="2" t="s">
@@ -3676,7 +3684,7 @@
       <c r="F67" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="G67" s="3">
+      <c r="G67" s="6">
         <v>22</v>
       </c>
       <c r="H67" s="2" t="s">
@@ -3702,7 +3710,7 @@
       <c r="F68" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="G68" s="3">
+      <c r="G68" s="6">
         <v>23</v>
       </c>
       <c r="H68" s="2" t="s">
@@ -3728,7 +3736,7 @@
       <c r="F69" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="G69" s="3">
+      <c r="G69" s="6">
         <v>23</v>
       </c>
       <c r="H69" s="2" t="s">
@@ -3754,7 +3762,7 @@
       <c r="F70" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="G70" s="3">
+      <c r="G70" s="6">
         <v>23</v>
       </c>
       <c r="H70" s="2" t="s">
@@ -3780,7 +3788,7 @@
       <c r="F71" t="s">
         <v>357</v>
       </c>
-      <c r="G71" s="3">
+      <c r="G71" s="6">
         <v>24</v>
       </c>
       <c r="H71" s="2" t="s">
@@ -3806,7 +3814,7 @@
       <c r="F72" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="G72" s="3">
+      <c r="G72" s="6">
         <v>24</v>
       </c>
       <c r="H72" s="2" t="s">
@@ -3832,7 +3840,7 @@
       <c r="F73" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="G73" s="3">
+      <c r="G73" s="6">
         <v>24</v>
       </c>
       <c r="H73" s="2" t="s">
@@ -3858,7 +3866,7 @@
       <c r="F74" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="G74" s="3">
+      <c r="G74" s="6">
         <v>25</v>
       </c>
       <c r="H74" s="2" t="s">
@@ -3884,7 +3892,7 @@
       <c r="F75" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="G75" s="3">
+      <c r="G75" s="6">
         <v>25</v>
       </c>
       <c r="H75" s="2" t="s">
@@ -3910,7 +3918,7 @@
       <c r="F76" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="G76" s="3">
+      <c r="G76" s="6">
         <v>25</v>
       </c>
       <c r="H76" s="2" t="s">
@@ -3936,7 +3944,7 @@
       <c r="F77" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="G77" s="3">
+      <c r="G77" s="6">
         <v>26</v>
       </c>
       <c r="H77" s="2" t="s">
@@ -3962,7 +3970,7 @@
       <c r="F78" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="G78" s="3">
+      <c r="G78" s="6">
         <v>26</v>
       </c>
       <c r="H78" s="2" t="s">
@@ -3988,7 +3996,7 @@
       <c r="F79" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="G79" s="3">
+      <c r="G79" s="6">
         <v>26</v>
       </c>
       <c r="H79" s="2" t="s">
@@ -4014,7 +4022,7 @@
       <c r="F80" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="G80" s="3">
+      <c r="G80" s="6">
         <v>27</v>
       </c>
       <c r="H80" s="5" t="s">
@@ -4040,7 +4048,7 @@
       <c r="F81" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="G81" s="3">
+      <c r="G81" s="6">
         <v>27</v>
       </c>
       <c r="H81" s="5" t="s">
@@ -4066,7 +4074,7 @@
       <c r="F82" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="G82" s="4">
+      <c r="G82" s="7">
         <v>27</v>
       </c>
       <c r="H82" s="5" t="s">
@@ -4092,7 +4100,7 @@
       <c r="F83" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="G83" s="3">
+      <c r="G83" s="6">
         <v>28</v>
       </c>
       <c r="H83" s="2" t="s">
@@ -4118,7 +4126,7 @@
       <c r="F84" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="G84" s="3">
+      <c r="G84" s="6">
         <v>28</v>
       </c>
       <c r="H84" s="2" t="s">
@@ -4144,7 +4152,7 @@
       <c r="F85" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="G85" s="3">
+      <c r="G85" s="6">
         <v>28</v>
       </c>
       <c r="H85" s="2" t="s">
@@ -4170,7 +4178,7 @@
       <c r="F86" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="G86" s="3">
+      <c r="G86" s="6">
         <v>29</v>
       </c>
       <c r="H86" s="2" t="s">
@@ -4196,7 +4204,7 @@
       <c r="F87" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="G87" s="3">
+      <c r="G87" s="6">
         <v>29</v>
       </c>
       <c r="H87" s="2" t="s">
@@ -4222,7 +4230,7 @@
       <c r="F88" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="G88" s="3">
+      <c r="G88" s="6">
         <v>29</v>
       </c>
       <c r="H88" s="2" t="s">
@@ -4248,7 +4256,7 @@
       <c r="F89" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="G89" s="3">
+      <c r="G89" s="6">
         <v>29</v>
       </c>
       <c r="H89" s="2" t="s">
@@ -4274,7 +4282,7 @@
       <c r="F90" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="G90" s="3">
+      <c r="G90" s="6">
         <v>30</v>
       </c>
       <c r="H90" s="2" t="s">
@@ -4300,7 +4308,7 @@
       <c r="F91" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="G91" s="3">
+      <c r="G91" s="6">
         <v>30</v>
       </c>
       <c r="H91" s="2" t="s">
@@ -4326,7 +4334,7 @@
       <c r="F92" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="G92" s="3">
+      <c r="G92" s="6">
         <v>30</v>
       </c>
       <c r="H92" s="2" t="s">
